--- a/Financial_Data/MoneyControl/Companies/IT Services & Consulting/Tech Mahindra Ltd/Pruned_Excel/Pruned_Balance-sheet_combined.xlsx
+++ b/Financial_Data/MoneyControl/Companies/IT Services & Consulting/Tech Mahindra Ltd/Pruned_Excel/Pruned_Balance-sheet_combined.xlsx
@@ -1,15 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28324"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sharm\OneDrive\Desktop\Kishan\Contractzy\WebScrapping\Tutorial\Financial_Data\MoneyControl\Companies\IT Services &amp; Consulting\Tech Mahindra Ltd\Pruned_Excel\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7EBD9D0-8C27-47DF-A1F5-9C20ACC4B7A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -190,8 +196,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -254,13 +260,21 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -298,7 +312,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -332,6 +346,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -366,9 +381,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -541,14 +557,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AK21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="37.33203125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:37">
+    <row r="1" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -661,15 +680,15 @@
         <v>36</v>
       </c>
     </row>
-    <row r="2" spans="1:37">
+    <row r="2" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>37</v>
       </c>
       <c r="B2">
-        <v>20.35</v>
+        <v>20.350000000000001</v>
       </c>
       <c r="C2">
-        <v>20.35</v>
+        <v>20.350000000000001</v>
       </c>
       <c r="D2">
         <v>462.48</v>
@@ -750,7 +769,7 @@
         <v>655.35</v>
       </c>
       <c r="AD2">
-        <v>17.99</v>
+        <v>17.989999999999998</v>
       </c>
       <c r="AE2">
         <v>9.5</v>
@@ -774,7 +793,7 @@
         <v>114.93</v>
       </c>
     </row>
-    <row r="3" spans="1:37">
+    <row r="3" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>38</v>
       </c>
@@ -785,10 +804,10 @@
         <v>20.8</v>
       </c>
       <c r="D3">
-        <v>577.0599999999999</v>
+        <v>577.05999999999995</v>
       </c>
       <c r="E3">
-        <v>577.0599999999999</v>
+        <v>577.05999999999995</v>
       </c>
       <c r="F3">
         <v>597.86</v>
@@ -800,7 +819,7 @@
         <v>418.56</v>
       </c>
       <c r="I3">
-        <v>0.14</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="J3">
         <v>195.77</v>
@@ -818,13 +837,13 @@
         <v>995.92</v>
       </c>
       <c r="O3">
-        <v>156.8</v>
+        <v>156.80000000000001</v>
       </c>
       <c r="P3">
         <v>332.81</v>
       </c>
       <c r="Q3">
-        <v>19.33</v>
+        <v>19.329999999999998</v>
       </c>
       <c r="R3">
         <v>176.13</v>
@@ -887,7 +906,7 @@
         <v>294.75</v>
       </c>
     </row>
-    <row r="4" spans="1:37">
+    <row r="4" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>39</v>
       </c>
@@ -913,7 +932,7 @@
         <v>418.56</v>
       </c>
       <c r="I4">
-        <v>0.14</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="J4">
         <v>498.7</v>
@@ -922,7 +941,7 @@
         <v>1998.62</v>
       </c>
       <c r="L4">
-        <v>139.27</v>
+        <v>139.27000000000001</v>
       </c>
       <c r="M4">
         <v>690.63</v>
@@ -943,7 +962,7 @@
         <v>301.68</v>
       </c>
       <c r="S4">
-        <v>283.21</v>
+        <v>283.20999999999998</v>
       </c>
       <c r="T4">
         <v>1.51</v>
@@ -964,7 +983,7 @@
         <v>28.92</v>
       </c>
       <c r="Z4">
-        <v>161.55</v>
+        <v>161.55000000000001</v>
       </c>
       <c r="AA4">
         <v>2918.12</v>
@@ -997,10 +1016,10 @@
         <v>105.35</v>
       </c>
       <c r="AK4">
-        <v>283.21</v>
+        <v>283.20999999999998</v>
       </c>
     </row>
-    <row r="5" spans="1:37">
+    <row r="5" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>40</v>
       </c>
@@ -1017,7 +1036,7 @@
         <v>1107</v>
       </c>
       <c r="F5">
-        <v>1228.4</v>
+        <v>1228.4000000000001</v>
       </c>
       <c r="G5">
         <v>455.73</v>
@@ -1035,7 +1054,7 @@
         <v>125</v>
       </c>
       <c r="L5">
-        <v>258.4</v>
+        <v>258.39999999999998</v>
       </c>
       <c r="M5">
         <v>987.5</v>
@@ -1044,7 +1063,7 @@
         <v>2216</v>
       </c>
       <c r="O5">
-        <v>290.9</v>
+        <v>290.89999999999998</v>
       </c>
       <c r="P5">
         <v>332.81</v>
@@ -1056,7 +1075,7 @@
         <v>429.4</v>
       </c>
       <c r="S5">
-        <v>298.6</v>
+        <v>298.60000000000002</v>
       </c>
       <c r="T5">
         <v>1.5</v>
@@ -1071,10 +1090,10 @@
         <v>3208.15</v>
       </c>
       <c r="X5">
-        <v>1057.4</v>
+        <v>1057.4000000000001</v>
       </c>
       <c r="Y5">
-        <v>81.40000000000001</v>
+        <v>81.400000000000006</v>
       </c>
       <c r="Z5">
         <v>347.7</v>
@@ -1101,19 +1120,19 @@
         <v>15.43</v>
       </c>
       <c r="AH5">
-        <v>2559.3</v>
+        <v>2559.3000000000002</v>
       </c>
       <c r="AI5">
-        <v>4.4</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="AJ5">
         <v>105.35</v>
       </c>
       <c r="AK5">
-        <v>298.6</v>
+        <v>298.60000000000002</v>
       </c>
     </row>
-    <row r="6" spans="1:37">
+    <row r="6" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>41</v>
       </c>
@@ -1166,7 +1185,7 @@
         <v>154.1</v>
       </c>
       <c r="R6">
-        <v>644.2</v>
+        <v>644.20000000000005</v>
       </c>
       <c r="S6">
         <v>453.5</v>
@@ -1202,7 +1221,7 @@
         <v>2751.8</v>
       </c>
       <c r="AD6">
-        <v>138.7</v>
+        <v>138.69999999999999</v>
       </c>
       <c r="AE6">
         <v>57.9</v>
@@ -1226,7 +1245,7 @@
         <v>453.5</v>
       </c>
     </row>
-    <row r="7" spans="1:37">
+    <row r="7" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>42</v>
       </c>
@@ -1327,7 +1346,7 @@
         <v>15.43</v>
       </c>
       <c r="AH7">
-        <v>4156.9</v>
+        <v>4156.8999999999996</v>
       </c>
       <c r="AI7">
         <v>969.6</v>
@@ -1339,7 +1358,7 @@
         <v>3113.9</v>
       </c>
     </row>
-    <row r="8" spans="1:37">
+    <row r="8" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>43</v>
       </c>
@@ -1362,13 +1381,13 @@
         <v>393.1</v>
       </c>
       <c r="H8">
-        <v>133.8</v>
+        <v>133.80000000000001</v>
       </c>
       <c r="I8">
-        <v>1166.9</v>
+        <v>1166.9000000000001</v>
       </c>
       <c r="J8">
-        <v>303.4</v>
+        <v>303.39999999999998</v>
       </c>
       <c r="K8">
         <v>532.4</v>
@@ -1431,7 +1450,7 @@
         <v>354.1</v>
       </c>
       <c r="AE8">
-        <v>73.59999999999999</v>
+        <v>73.599999999999994</v>
       </c>
       <c r="AF8">
         <v>1761.6</v>
@@ -1452,7 +1471,7 @@
         <v>3158.8</v>
       </c>
     </row>
-    <row r="9" spans="1:37">
+    <row r="9" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>44</v>
       </c>
@@ -1487,7 +1506,7 @@
         <v>566.9</v>
       </c>
       <c r="L9">
-        <v>138.8</v>
+        <v>138.80000000000001</v>
       </c>
       <c r="M9">
         <v>1700.7</v>
@@ -1496,13 +1515,13 @@
         <v>6345.4</v>
       </c>
       <c r="O9">
-        <v>646.3</v>
+        <v>646.29999999999995</v>
       </c>
       <c r="P9">
         <v>6.3</v>
       </c>
       <c r="Q9">
-        <v>162.7</v>
+        <v>162.69999999999999</v>
       </c>
       <c r="R9">
         <v>815.3</v>
@@ -1523,7 +1542,7 @@
         <v>120.3</v>
       </c>
       <c r="X9">
-        <v>1243.1</v>
+        <v>1243.0999999999999</v>
       </c>
       <c r="Y9">
         <v>138.9</v>
@@ -1556,7 +1575,7 @@
         <v>4702.8</v>
       </c>
       <c r="AI9">
-        <v>4.6</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="AJ9">
         <v>105.35</v>
@@ -1565,7 +1584,7 @@
         <v>3177</v>
       </c>
     </row>
-    <row r="10" spans="1:37">
+    <row r="10" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>45</v>
       </c>
@@ -1624,7 +1643,7 @@
         <v>3807.5</v>
       </c>
       <c r="T10">
-        <v>94.40000000000001</v>
+        <v>94.4</v>
       </c>
       <c r="U10">
         <v>1921.55</v>
@@ -1639,7 +1658,7 @@
         <v>1372.5</v>
       </c>
       <c r="Y10">
-        <v>271.1</v>
+        <v>271.10000000000002</v>
       </c>
       <c r="Z10">
         <v>331</v>
@@ -1678,7 +1697,7 @@
         <v>3851.4</v>
       </c>
     </row>
-    <row r="11" spans="1:37">
+    <row r="11" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>46</v>
       </c>
@@ -1713,7 +1732,7 @@
         <v>1698</v>
       </c>
       <c r="L11">
-        <v>1089.4</v>
+        <v>1089.4000000000001</v>
       </c>
       <c r="M11">
         <v>4219.3</v>
@@ -1725,7 +1744,7 @@
         <v>1793.9</v>
       </c>
       <c r="P11">
-        <v>39.7</v>
+        <v>39.700000000000003</v>
       </c>
       <c r="Q11">
         <v>264</v>
@@ -1737,7 +1756,7 @@
         <v>2294</v>
       </c>
       <c r="T11">
-        <v>310.9</v>
+        <v>310.89999999999998</v>
       </c>
       <c r="U11">
         <v>15.7</v>
@@ -1770,7 +1789,7 @@
         <v>2385.1</v>
       </c>
       <c r="AE11">
-        <v>149.8</v>
+        <v>149.80000000000001</v>
       </c>
       <c r="AF11">
         <v>8134</v>
@@ -1791,7 +1810,7 @@
         <v>2967.6</v>
       </c>
     </row>
-    <row r="12" spans="1:37">
+    <row r="12" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>47</v>
       </c>
@@ -1871,7 +1890,7 @@
         <v>1745.2</v>
       </c>
       <c r="AA12">
-        <v>1226.6</v>
+        <v>1226.5999999999999</v>
       </c>
       <c r="AB12">
         <v>9488.9</v>
@@ -1886,13 +1905,13 @@
         <v>209.8</v>
       </c>
       <c r="AF12">
-        <v>10365.3</v>
+        <v>10365.299999999999</v>
       </c>
       <c r="AG12">
         <v>0.2</v>
       </c>
       <c r="AH12">
-        <v>18366.9</v>
+        <v>18366.900000000001</v>
       </c>
       <c r="AI12">
         <v>18.7</v>
@@ -1904,7 +1923,7 @@
         <v>4188</v>
       </c>
     </row>
-    <row r="13" spans="1:37">
+    <row r="13" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>48</v>
       </c>
@@ -1933,7 +1952,7 @@
         <v>517.5</v>
       </c>
       <c r="J13">
-        <v>2183.7</v>
+        <v>2183.6999999999998</v>
       </c>
       <c r="K13">
         <v>1015.3</v>
@@ -1945,7 +1964,7 @@
         <v>5348.4</v>
       </c>
       <c r="N13">
-        <v>20649.9</v>
+        <v>20649.900000000001</v>
       </c>
       <c r="O13">
         <v>2256.9</v>
@@ -1969,13 +1988,13 @@
         <v>26.5</v>
       </c>
       <c r="V13">
-        <v>8376.299999999999</v>
+        <v>8376.2999999999993</v>
       </c>
       <c r="W13">
         <v>1049</v>
       </c>
       <c r="X13">
-        <v>5154.4</v>
+        <v>5154.3999999999996</v>
       </c>
       <c r="Y13">
         <v>3284.8</v>
@@ -1984,13 +2003,13 @@
         <v>1556.3</v>
       </c>
       <c r="AA13">
-        <v>1229.1</v>
+        <v>1229.0999999999999</v>
       </c>
       <c r="AB13">
         <v>12273.6</v>
       </c>
       <c r="AC13">
-        <v>20649.9</v>
+        <v>20649.900000000001</v>
       </c>
       <c r="AD13">
         <v>2980</v>
@@ -2017,7 +2036,7 @@
         <v>3992.8</v>
       </c>
     </row>
-    <row r="14" spans="1:37">
+    <row r="14" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>49</v>
       </c>
@@ -2046,7 +2065,7 @@
         <v>917.3</v>
       </c>
       <c r="J14">
-        <v>2211.2</v>
+        <v>2211.1999999999998</v>
       </c>
       <c r="K14">
         <v>2247.9</v>
@@ -2055,10 +2074,10 @@
         <v>235.8</v>
       </c>
       <c r="M14">
-        <v>4694.9</v>
+        <v>4694.8999999999996</v>
       </c>
       <c r="N14">
-        <v>23732.8</v>
+        <v>23732.799999999999</v>
       </c>
       <c r="O14">
         <v>2427.6</v>
@@ -2103,7 +2122,7 @@
         <v>13128.9</v>
       </c>
       <c r="AC14">
-        <v>23732.8</v>
+        <v>23732.799999999999</v>
       </c>
       <c r="AD14">
         <v>7787.3</v>
@@ -2118,7 +2137,7 @@
         <v>15.43</v>
       </c>
       <c r="AH14">
-        <v>8204.290000000001</v>
+        <v>8204.2900000000009</v>
       </c>
       <c r="AI14">
         <v>10257.07</v>
@@ -2130,7 +2149,7 @@
         <v>5714.6</v>
       </c>
     </row>
-    <row r="15" spans="1:37">
+    <row r="15" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>50</v>
       </c>
@@ -2141,10 +2160,10 @@
         <v>489.7</v>
       </c>
       <c r="D15">
-        <v>19049.1</v>
+        <v>19049.099999999999</v>
       </c>
       <c r="E15">
-        <v>19049.1</v>
+        <v>19049.099999999999</v>
       </c>
       <c r="F15">
         <v>19538.8</v>
@@ -2171,7 +2190,7 @@
         <v>5025.7</v>
       </c>
       <c r="N15">
-        <v>26798.8</v>
+        <v>26798.799999999999</v>
       </c>
       <c r="O15">
         <v>2237.9</v>
@@ -2216,7 +2235,7 @@
         <v>14340.7</v>
       </c>
       <c r="AC15">
-        <v>26798.8</v>
+        <v>26798.799999999999</v>
       </c>
       <c r="AD15">
         <v>8156.9</v>
@@ -2231,7 +2250,7 @@
         <v>15.43</v>
       </c>
       <c r="AH15">
-        <v>22501.6</v>
+        <v>22501.599999999999</v>
       </c>
       <c r="AI15">
         <v>10257.07</v>
@@ -2243,7 +2262,7 @@
         <v>6852.8</v>
       </c>
     </row>
-    <row r="16" spans="1:37">
+    <row r="16" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>51</v>
       </c>
@@ -2260,7 +2279,7 @@
         <v>20153.7</v>
       </c>
       <c r="F16">
-        <v>20645.4</v>
+        <v>20645.400000000001</v>
       </c>
       <c r="G16">
         <v>203.2</v>
@@ -2275,7 +2294,7 @@
         <v>2888</v>
       </c>
       <c r="K16">
-        <v>4756.6</v>
+        <v>4756.6000000000004</v>
       </c>
       <c r="L16">
         <v>199.7</v>
@@ -2284,7 +2303,7 @@
         <v>7844.3</v>
       </c>
       <c r="N16">
-        <v>30339.6</v>
+        <v>30339.599999999999</v>
       </c>
       <c r="O16">
         <v>1901.9</v>
@@ -2326,10 +2345,10 @@
         <v>4406.3</v>
       </c>
       <c r="AB16">
-        <v>17916.9</v>
+        <v>17916.900000000001</v>
       </c>
       <c r="AC16">
-        <v>30339.6</v>
+        <v>30339.599999999999</v>
       </c>
       <c r="AD16">
         <v>7329.9</v>
@@ -2344,7 +2363,7 @@
         <v>15.43</v>
       </c>
       <c r="AH16">
-        <v>8204.290000000001</v>
+        <v>8204.2900000000009</v>
       </c>
       <c r="AI16">
         <v>25495.8</v>
@@ -2356,7 +2375,7 @@
         <v>6095.3</v>
       </c>
     </row>
-    <row r="17" spans="1:37">
+    <row r="17" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>52</v>
       </c>
@@ -2367,10 +2386,10 @@
         <v>482.9</v>
       </c>
       <c r="D17">
-        <v>21377.6</v>
+        <v>21377.599999999999</v>
       </c>
       <c r="E17">
-        <v>21377.6</v>
+        <v>21377.599999999999</v>
       </c>
       <c r="F17">
         <v>22272.7</v>
@@ -2382,7 +2401,7 @@
         <v>459.4</v>
       </c>
       <c r="I17">
-        <v>1104.4</v>
+        <v>1104.4000000000001</v>
       </c>
       <c r="J17">
         <v>2525.6</v>
@@ -2400,13 +2419,13 @@
         <v>30322</v>
       </c>
       <c r="O17">
-        <v>2545.2</v>
+        <v>2545.1999999999998</v>
       </c>
       <c r="P17">
         <v>690.8</v>
       </c>
       <c r="Q17">
-        <v>35.2</v>
+        <v>35.200000000000003</v>
       </c>
       <c r="R17">
         <v>3370.9</v>
@@ -2418,7 +2437,7 @@
         <v>436.4</v>
       </c>
       <c r="U17">
-        <v>2583.3</v>
+        <v>2583.3000000000002</v>
       </c>
       <c r="V17">
         <v>12278.9</v>
@@ -2439,7 +2458,7 @@
         <v>5205.2</v>
       </c>
       <c r="AB17">
-        <v>18043.1</v>
+        <v>18043.099999999999</v>
       </c>
       <c r="AC17">
         <v>30322</v>
@@ -2457,7 +2476,7 @@
         <v>15.43</v>
       </c>
       <c r="AH17">
-        <v>8204.290000000001</v>
+        <v>8204.2900000000009</v>
       </c>
       <c r="AI17">
         <v>27897.3</v>
@@ -2469,7 +2488,7 @@
         <v>5887</v>
       </c>
     </row>
-    <row r="18" spans="1:37">
+    <row r="18" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>53</v>
       </c>
@@ -2498,7 +2517,7 @@
         <v>1167.2</v>
       </c>
       <c r="J18">
-        <v>2527.8</v>
+        <v>2527.8000000000002</v>
       </c>
       <c r="K18">
         <v>3223.7</v>
@@ -2510,13 +2529,13 @@
         <v>5961.3</v>
       </c>
       <c r="N18">
-        <v>33374.7</v>
+        <v>33374.699999999997</v>
       </c>
       <c r="O18">
         <v>2320.4</v>
       </c>
       <c r="P18">
-        <v>638.2</v>
+        <v>638.20000000000005</v>
       </c>
       <c r="Q18">
         <v>111.4</v>
@@ -2531,19 +2550,19 @@
         <v>405.4</v>
       </c>
       <c r="U18">
-        <v>2291.8</v>
+        <v>2291.8000000000002</v>
       </c>
       <c r="V18">
         <v>13354.5</v>
       </c>
       <c r="W18">
-        <v>9054.200000000001</v>
+        <v>9054.2000000000007</v>
       </c>
       <c r="X18">
-        <v>5152.6</v>
+        <v>5152.6000000000004</v>
       </c>
       <c r="Y18">
-        <v>1050.1</v>
+        <v>1050.0999999999999</v>
       </c>
       <c r="Z18">
         <v>7.3</v>
@@ -2555,7 +2574,7 @@
         <v>20020.2</v>
       </c>
       <c r="AC18">
-        <v>33374.7</v>
+        <v>33374.699999999997</v>
       </c>
       <c r="AD18">
         <v>7853.6</v>
@@ -2564,13 +2583,13 @@
         <v>85.41</v>
       </c>
       <c r="AF18">
-        <v>17029.1</v>
+        <v>17029.099999999999</v>
       </c>
       <c r="AG18">
         <v>15.43</v>
       </c>
       <c r="AH18">
-        <v>8204.290000000001</v>
+        <v>8204.2900000000009</v>
       </c>
       <c r="AI18">
         <v>27738.3</v>
@@ -2582,7 +2601,7 @@
         <v>7199.3</v>
       </c>
     </row>
-    <row r="19" spans="1:37">
+    <row r="19" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>54</v>
       </c>
@@ -2599,7 +2618,7 @@
         <v>25359.7</v>
       </c>
       <c r="F19">
-        <v>25845.6</v>
+        <v>25845.599999999999</v>
       </c>
       <c r="G19">
         <v>704.3</v>
@@ -2617,13 +2636,13 @@
         <v>3290.8</v>
       </c>
       <c r="L19">
-        <v>266.4</v>
+        <v>266.39999999999998</v>
       </c>
       <c r="M19">
         <v>6636.4</v>
       </c>
       <c r="N19">
-        <v>35004.8</v>
+        <v>35004.800000000003</v>
       </c>
       <c r="O19">
         <v>2447.1</v>
@@ -2632,7 +2651,7 @@
         <v>647.6</v>
       </c>
       <c r="Q19">
-        <v>132.2</v>
+        <v>132.19999999999999</v>
       </c>
       <c r="R19">
         <v>3306.6</v>
@@ -2653,7 +2672,7 @@
         <v>3256.3</v>
       </c>
       <c r="X19">
-        <v>9665.799999999999</v>
+        <v>9665.7999999999993</v>
       </c>
       <c r="Y19">
         <v>1306.8</v>
@@ -2668,7 +2687,7 @@
         <v>16965</v>
       </c>
       <c r="AC19">
-        <v>35004.8</v>
+        <v>35004.800000000003</v>
       </c>
       <c r="AD19">
         <v>7644.9</v>
@@ -2683,7 +2702,7 @@
         <v>15.43</v>
       </c>
       <c r="AH19">
-        <v>8204.290000000001</v>
+        <v>8204.2900000000009</v>
       </c>
       <c r="AI19">
         <v>23269.8</v>
@@ -2695,7 +2714,7 @@
         <v>12385.5</v>
       </c>
     </row>
-    <row r="20" spans="1:37">
+    <row r="20" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>55</v>
       </c>
@@ -2715,7 +2734,7 @@
         <v>24821.3</v>
       </c>
       <c r="G20">
-        <v>626.8</v>
+        <v>626.79999999999995</v>
       </c>
       <c r="H20">
         <v>609</v>
@@ -2727,7 +2746,7 @@
         <v>4107.2</v>
       </c>
       <c r="K20">
-        <v>5137.4</v>
+        <v>5137.3999999999996</v>
       </c>
       <c r="L20">
         <v>350.9</v>
@@ -2736,7 +2755,7 @@
         <v>9595.5</v>
       </c>
       <c r="N20">
-        <v>36035.2</v>
+        <v>36035.199999999997</v>
       </c>
       <c r="O20">
         <v>2723.1</v>
@@ -2763,7 +2782,7 @@
         <v>18691.3</v>
       </c>
       <c r="W20">
-        <v>2497.7</v>
+        <v>2497.6999999999998</v>
       </c>
       <c r="X20">
         <v>10351.6</v>
@@ -2778,10 +2797,10 @@
         <v>3290.8</v>
       </c>
       <c r="AB20">
-        <v>17343.9</v>
+        <v>17343.900000000001</v>
       </c>
       <c r="AC20">
-        <v>36035.2</v>
+        <v>36035.199999999997</v>
       </c>
       <c r="AD20">
         <v>6399.3</v>
@@ -2796,10 +2815,10 @@
         <v>15.43</v>
       </c>
       <c r="AH20">
-        <v>8204.290000000001</v>
+        <v>8204.2900000000009</v>
       </c>
       <c r="AI20">
-        <v>39450.4</v>
+        <v>39450.400000000001</v>
       </c>
       <c r="AJ20">
         <v>345.5</v>
@@ -2808,7 +2827,7 @@
         <v>10425</v>
       </c>
     </row>
-    <row r="21" spans="1:37">
+    <row r="21" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>56</v>
       </c>
@@ -2837,7 +2856,7 @@
         <v>1424.6</v>
       </c>
       <c r="J21">
-        <v>4426.6</v>
+        <v>4426.6000000000004</v>
       </c>
       <c r="K21">
         <v>3637.4</v>
@@ -2846,13 +2865,13 @@
         <v>774.2</v>
       </c>
       <c r="M21">
-        <v>8838.200000000001</v>
+        <v>8838.2000000000007</v>
       </c>
       <c r="N21">
-        <v>34663.7</v>
+        <v>34663.699999999997</v>
       </c>
       <c r="O21">
-        <v>2432.7</v>
+        <v>2432.6999999999998</v>
       </c>
       <c r="P21">
         <v>720.4</v>
@@ -2867,7 +2886,7 @@
         <v>10662.5</v>
       </c>
       <c r="T21">
-        <v>614.2</v>
+        <v>614.20000000000005</v>
       </c>
       <c r="U21">
         <v>3287.3</v>
@@ -2876,10 +2895,10 @@
         <v>17882.7</v>
       </c>
       <c r="W21">
-        <v>2551.2</v>
+        <v>2551.1999999999998</v>
       </c>
       <c r="X21">
-        <v>9437.299999999999</v>
+        <v>9437.2999999999993</v>
       </c>
       <c r="Y21">
         <v>1521.8</v>
@@ -2894,7 +2913,7 @@
         <v>16781</v>
       </c>
       <c r="AC21">
-        <v>34663.7</v>
+        <v>34663.699999999997</v>
       </c>
       <c r="AD21">
         <v>6770.4</v>
@@ -2909,10 +2928,10 @@
         <v>15.43</v>
       </c>
       <c r="AH21">
-        <v>8204.290000000001</v>
+        <v>8204.2900000000009</v>
       </c>
       <c r="AI21">
-        <v>39360.4</v>
+        <v>39360.400000000001</v>
       </c>
       <c r="AJ21">
         <v>345.5</v>
